--- a/files/ROJMEL.xlsx
+++ b/files/ROJMEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excle\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D822A8-EF13-4E08-9FF0-C2B8A3D45C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24252A25-AC7B-4351-90E1-FEE6CF35CD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{113DD868-C34C-405C-98AB-405BB0E6F01D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{113DD868-C34C-405C-98AB-405BB0E6F01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>NO.</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>S. S. (JAGDISH SIR)</t>
+  </si>
+  <si>
+    <t>DIFFERENCE</t>
+  </si>
+  <si>
+    <t>CLOSING BALANCE</t>
   </si>
 </sst>
 </file>
@@ -284,15 +290,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -373,12 +385,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -416,9 +441,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -756,19 +787,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD538BF-2A0D-4EFE-99B3-FCB30F79496D}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="B68" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1384,13 +1415,13 @@
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" s="12" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15" t="s">
@@ -1407,208 +1438,539 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
       <c r="B49" s="8">
         <v>902020</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+      <c r="D49" s="8"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>3</v>
+      </c>
+      <c r="B51" s="6">
         <v>1300</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="8">
         <v>8240</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6">
         <v>6000</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="8">
         <v>340</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>5</v>
+      </c>
+      <c r="B53" s="6">
         <v>300</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="8">
         <v>10</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6">
         <v>500</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="8">
         <v>120</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6">
         <v>50000</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="8">
         <v>1000</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
         <v>4300</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="8">
         <v>200</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>9</v>
+      </c>
+      <c r="B57" s="6">
         <v>1800</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="8">
         <v>140</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6">
         <v>1380</v>
       </c>
-      <c r="D58" s="1">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>40</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>11</v>
+      </c>
+      <c r="B59" s="6">
         <v>20000</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="8">
         <v>20000</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>12</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8">
         <v>50</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="1">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>13</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8">
         <v>100</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>14</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8">
         <v>20</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="1">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8">
         <v>92800</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="1">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8">
         <v>315</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="1">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>17</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8">
         <v>100</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="1">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8">
         <v>10000</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="7" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>19</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>20</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>21</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>22</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>23</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>24</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>25</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>26</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>27</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>28</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>29</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>30</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>31</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>32</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>33</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>34</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>35</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>36</v>
+      </c>
+      <c r="B84" s="6">
+        <f>SUM(B49:B82)</f>
+        <v>987600</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8">
+        <f>SUM(D51:D82)</f>
+        <v>133475</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>37</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8">
+        <f>B84-D84</f>
+        <v>854125</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>38</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>39</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8">
+        <v>854150</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>40</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8">
+        <f>D87-D85</f>
+        <v>25</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>41</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>42</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>43</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>44</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
